--- a/santillana-recursos/semana_10/LGS3_Aprende en casa_GAVI_Semana 10_2021-2022.xlsx
+++ b/santillana-recursos/semana_10/LGS3_Aprende en casa_GAVI_Semana 10_2021-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fceron/Desktop/APRENDE EN CASA/SEMANA 10/DEFINITIVOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos.ciddelapaz/Library/Mobile Documents/com~apple~CloudDocs/Dev/GitHub/gavi/santillana-recursos/semana_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF541AF-5E84-DC43-BDD3-21D119F014B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EE9397-9390-F348-9310-C234EB43B468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="5660" windowWidth="41260" windowHeight="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tercer grado-Semana 10" sheetId="1" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1157,10 +1157,437 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1170,512 +1597,42 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1728,45 +1685,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1810,7 +1728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1831,28 +1749,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1873,22 +1791,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1897,13 +1815,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,16 +1830,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1933,10 +1851,10 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1945,25 +1863,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1972,61 +1890,61 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2035,16 +1953,16 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,7 +1971,7 @@
     <xf numFmtId="3" fontId="15" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,86 +1980,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2438,10 +2326,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr published="0"/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
@@ -2463,28 +2351,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34" customHeight="1" thickBot="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:9" ht="28" customHeight="1" thickBot="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="56" customHeight="1" thickBot="1">
@@ -2513,7 +2401,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -2538,7 +2426,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A5" s="95"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="16" t="s">
         <v>39</v>
       </c>
@@ -2561,7 +2449,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="110" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="16" t="s">
         <v>42</v>
       </c>
@@ -2584,7 +2472,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="120" customHeight="1">
-      <c r="A7" s="95"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="16" t="s">
         <v>43</v>
       </c>
@@ -2603,7 +2491,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="135" customHeight="1" thickBot="1">
-      <c r="A8" s="96"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="22" t="s">
         <v>45</v>
       </c>
@@ -2623,559 +2511,471 @@
       <c r="H8" s="56"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
+      <c r="A9" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="17" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
+      <c r="A10" s="96"/>
+      <c r="B10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77" t="s">
+        <v>101</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="26" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="72" t="s">
-        <v>100</v>
+      <c r="E11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="87" t="s">
+        <v>93</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A12" s="95"/>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="150" customHeight="1">
+      <c r="A12" s="96"/>
       <c r="B12" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77" t="s">
-        <v>101</v>
+      <c r="E12" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="87" t="s">
+        <v>81</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A13" s="95"/>
-      <c r="B13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="87" t="s">
-        <v>93</v>
-      </c>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="150" customHeight="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="87" t="s">
-        <v>81</v>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
+      <c r="A14" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
       <c r="A15" s="96"/>
-      <c r="B15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
+      <c r="B15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="101"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
+      <c r="A16" s="96"/>
+      <c r="B16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
+      <c r="A17" s="96"/>
+      <c r="B17" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="86"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A18" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>91</v>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1">
+      <c r="A18" s="97"/>
+      <c r="B18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="59" t="s">
+        <v>103</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A19" s="95"/>
-      <c r="B19" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="A19" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="65" t="s">
+        <v>90</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A20" s="95"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="32" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="88" t="s">
+        <v>83</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A21" s="95"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="32" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="82"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
       <c r="A22" s="96"/>
-      <c r="B22" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="59" t="s">
-        <v>103</v>
-      </c>
+      <c r="B22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="66"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="101"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1">
+      <c r="A23" s="97"/>
+      <c r="B23" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="17" thickBot="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108"/>
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
+      <c r="A24" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="90" t="s">
+        <v>84</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A25" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="65" t="s">
-        <v>90</v>
-      </c>
+      <c r="A25" s="96"/>
+      <c r="B25" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A26" s="95"/>
-      <c r="B26" s="32" t="s">
-        <v>64</v>
+      <c r="A26" s="96"/>
+      <c r="B26" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="88" t="s">
-        <v>83</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A27" s="95"/>
-      <c r="B27" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="88" t="s">
-        <v>106</v>
-      </c>
+      <c r="A27" s="96"/>
+      <c r="B27" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="46"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A28" s="95"/>
-      <c r="B28" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="66"/>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="149" customHeight="1" thickBot="1">
+      <c r="A28" s="97"/>
+      <c r="B28" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="51"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="101"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="17" thickBot="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A32" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A33" s="95"/>
-      <c r="B33" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A34" s="95"/>
-      <c r="B34" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1">
-      <c r="A35" s="95"/>
-      <c r="B35" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="149" customHeight="1" thickBot="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="51"/>
-      <c r="I36" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="7">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A9:H10"/>
-    <mergeCell ref="A16:H17"/>
-    <mergeCell ref="A23:H24"/>
-    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
